--- a/furniture_v2_be/src/UploadFiles/product.xlsx
+++ b/furniture_v2_be/src/UploadFiles/product.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24519"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24611"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1314F658-9ED7-4156-B6A2-0175751702FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC14B512-F142-4223-B7ED-0FD744A985BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,45 +26,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>sl đã bán</t>
-  </si>
-  <si>
-    <t>số % giảm</t>
-  </si>
-  <si>
-    <t>giá</t>
-  </si>
-  <si>
-    <t>trạng thái</t>
-  </si>
-  <si>
-    <t xml:space="preserve">size </t>
-  </si>
-  <si>
-    <t>trọng lượng</t>
-  </si>
-  <si>
-    <t>trọng tải tối đa</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>SL đã bán</t>
+  </si>
+  <si>
+    <t>Số % giảm</t>
+  </si>
+  <si>
+    <t>Giá</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Loại sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size </t>
+  </si>
+  <si>
+    <t>Trọng lượng</t>
+  </si>
+  <si>
+    <t>Trọng tải tối đa</t>
   </si>
   <si>
     <t>Chức năng</t>
   </si>
   <si>
-    <t>hình ảnh</t>
-  </si>
-  <si>
-    <t>danh mục</t>
+    <t>Hình ảnh</t>
+  </si>
+  <si>
+    <t>Danh mục</t>
   </si>
   <si>
     <t>Ergonomic chair</t>
@@ -446,18 +449,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:P3"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17" ht="24" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,10 +487,10 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M1" t="s">
@@ -497,13 +505,16 @@
       <c r="P1" t="s">
         <v>12</v>
       </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>15</v>
@@ -520,25 +531,28 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2">
         <v>10</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>150</v>
       </c>
-      <c r="N2" t="s">
-        <v>16</v>
+      <c r="O2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>55</v>
@@ -555,17 +569,20 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3">
         <v>70</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>400</v>
       </c>
-      <c r="N3" t="s">
-        <v>20</v>
+      <c r="O3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/furniture_v2_be/src/UploadFiles/product.xlsx
+++ b/furniture_v2_be/src/UploadFiles/product.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24715"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC14B512-F142-4223-B7ED-0FD744A985BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6088165-6953-463A-90DE-E4C2F7705806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Danh mục</t>
   </si>
   <si>
-    <t>Ergonomic chair</t>
+    <t>Ergonomic chair 1</t>
   </si>
   <si>
     <t>Ghế ngồi làm việc xịn xò</t>
@@ -82,7 +82,7 @@
     <t>Ghế xoay</t>
   </si>
   <si>
-    <t>Ikea table</t>
+    <t>Ikea table 1</t>
   </si>
   <si>
     <t>Bàn làm việc xịn xò</t>
@@ -92,6 +92,120 @@
   </si>
   <si>
     <t>Bàn rộng</t>
+  </si>
+  <si>
+    <t>Ergonomic chair 2</t>
+  </si>
+  <si>
+    <t>50x51</t>
+  </si>
+  <si>
+    <t>Ikea table 2</t>
+  </si>
+  <si>
+    <t>100x101</t>
+  </si>
+  <si>
+    <t>Ergonomic chair 3</t>
+  </si>
+  <si>
+    <t>50x52</t>
+  </si>
+  <si>
+    <t>Ikea table 3</t>
+  </si>
+  <si>
+    <t>100x102</t>
+  </si>
+  <si>
+    <t>Ergonomic chair 4</t>
+  </si>
+  <si>
+    <t>50x53</t>
+  </si>
+  <si>
+    <t>Ikea table 4</t>
+  </si>
+  <si>
+    <t>100x103</t>
+  </si>
+  <si>
+    <t>Ergonomic chair 5</t>
+  </si>
+  <si>
+    <t>50x54</t>
+  </si>
+  <si>
+    <t>Ikea table 5</t>
+  </si>
+  <si>
+    <t>100x104</t>
+  </si>
+  <si>
+    <t>Ergonomic chair 6</t>
+  </si>
+  <si>
+    <t>50x55</t>
+  </si>
+  <si>
+    <t>Ikea table 6</t>
+  </si>
+  <si>
+    <t>100x105</t>
+  </si>
+  <si>
+    <t>Ergonomic chair 7</t>
+  </si>
+  <si>
+    <t>50x56</t>
+  </si>
+  <si>
+    <t>Ikea table 7</t>
+  </si>
+  <si>
+    <t>100x106</t>
+  </si>
+  <si>
+    <t>Ergonomic chair 8</t>
+  </si>
+  <si>
+    <t>50x57</t>
+  </si>
+  <si>
+    <t>Ikea table 8</t>
+  </si>
+  <si>
+    <t>100x107</t>
+  </si>
+  <si>
+    <t>Ergonomic chair 9</t>
+  </si>
+  <si>
+    <t>50x58</t>
+  </si>
+  <si>
+    <t>Ikea table 9</t>
+  </si>
+  <si>
+    <t>100x108</t>
+  </si>
+  <si>
+    <t>Ergonomic chair 10</t>
+  </si>
+  <si>
+    <t>50x59</t>
+  </si>
+  <si>
+    <t>Ikea table 10</t>
+  </si>
+  <si>
+    <t>100x109</t>
+  </si>
+  <si>
+    <t>Ergonomic chair 11</t>
+  </si>
+  <si>
+    <t>50x60</t>
   </si>
 </sst>
 </file>
@@ -449,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="A2" sqref="A2:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -585,6 +699,842 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>95</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>300000</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4">
+        <v>130</v>
+      </c>
+      <c r="N4">
+        <v>650</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>135</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>400000</v>
+      </c>
+      <c r="G5">
+        <v>-2</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>190</v>
+      </c>
+      <c r="N5">
+        <v>900</v>
+      </c>
+      <c r="O5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>175</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>500000</v>
+      </c>
+      <c r="G6">
+        <v>-3</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6">
+        <v>250</v>
+      </c>
+      <c r="N6">
+        <v>1150</v>
+      </c>
+      <c r="O6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>215</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>600000</v>
+      </c>
+      <c r="G7">
+        <v>-4</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7">
+        <v>310</v>
+      </c>
+      <c r="N7">
+        <v>1400</v>
+      </c>
+      <c r="O7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>255</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>700000</v>
+      </c>
+      <c r="G8">
+        <v>-5</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8">
+        <v>370</v>
+      </c>
+      <c r="N8">
+        <v>1650</v>
+      </c>
+      <c r="O8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>295</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>800000</v>
+      </c>
+      <c r="G9">
+        <v>-6</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9">
+        <v>430</v>
+      </c>
+      <c r="N9">
+        <v>1900</v>
+      </c>
+      <c r="O9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>335</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>900000</v>
+      </c>
+      <c r="G10">
+        <v>-7</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10">
+        <v>490</v>
+      </c>
+      <c r="N10">
+        <v>2150</v>
+      </c>
+      <c r="O10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>375</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1000000</v>
+      </c>
+      <c r="G11">
+        <v>-8</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="L11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11">
+        <v>550</v>
+      </c>
+      <c r="N11">
+        <v>2400</v>
+      </c>
+      <c r="O11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>415</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1100000</v>
+      </c>
+      <c r="G12">
+        <v>-9</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="L12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12">
+        <v>610</v>
+      </c>
+      <c r="N12">
+        <v>2650</v>
+      </c>
+      <c r="O12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>455</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1200000</v>
+      </c>
+      <c r="G13">
+        <v>-10</v>
+      </c>
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="L13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13">
+        <v>670</v>
+      </c>
+      <c r="N13">
+        <v>2900</v>
+      </c>
+      <c r="O13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>495</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1300000</v>
+      </c>
+      <c r="G14">
+        <v>-11</v>
+      </c>
+      <c r="J14">
+        <v>12</v>
+      </c>
+      <c r="L14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14">
+        <v>730</v>
+      </c>
+      <c r="N14">
+        <v>3150</v>
+      </c>
+      <c r="O14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>535</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1400000</v>
+      </c>
+      <c r="G15">
+        <v>-12</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15">
+        <v>790</v>
+      </c>
+      <c r="N15">
+        <v>3400</v>
+      </c>
+      <c r="O15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>575</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1500000</v>
+      </c>
+      <c r="G16">
+        <v>-13</v>
+      </c>
+      <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="L16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16">
+        <v>850</v>
+      </c>
+      <c r="N16">
+        <v>3650</v>
+      </c>
+      <c r="O16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>615</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1600000</v>
+      </c>
+      <c r="G17">
+        <v>-14</v>
+      </c>
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="L17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17">
+        <v>910</v>
+      </c>
+      <c r="N17">
+        <v>3900</v>
+      </c>
+      <c r="O17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>655</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1700000</v>
+      </c>
+      <c r="G18">
+        <v>-15</v>
+      </c>
+      <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="L18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18">
+        <v>970</v>
+      </c>
+      <c r="N18">
+        <v>4150</v>
+      </c>
+      <c r="O18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>695</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1800000</v>
+      </c>
+      <c r="G19">
+        <v>-16</v>
+      </c>
+      <c r="J19">
+        <v>17</v>
+      </c>
+      <c r="L19" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19">
+        <v>1030</v>
+      </c>
+      <c r="N19">
+        <v>4400</v>
+      </c>
+      <c r="O19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>735</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1900000</v>
+      </c>
+      <c r="G20">
+        <v>-17</v>
+      </c>
+      <c r="J20">
+        <v>18</v>
+      </c>
+      <c r="L20" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20">
+        <v>1090</v>
+      </c>
+      <c r="N20">
+        <v>4650</v>
+      </c>
+      <c r="O20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>775</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2000000</v>
+      </c>
+      <c r="G21">
+        <v>-18</v>
+      </c>
+      <c r="J21">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21">
+        <v>1150</v>
+      </c>
+      <c r="N21">
+        <v>4900</v>
+      </c>
+      <c r="O21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>815</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2100000</v>
+      </c>
+      <c r="G22">
+        <v>-19</v>
+      </c>
+      <c r="J22">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>59</v>
+      </c>
+      <c r="M22">
+        <v>1210</v>
+      </c>
+      <c r="N22">
+        <v>5150</v>
+      </c>
+      <c r="O22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>855</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2200000</v>
+      </c>
+      <c r="G23">
+        <v>-20</v>
+      </c>
+      <c r="J23">
+        <v>21</v>
+      </c>
+      <c r="L23" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23">
+        <v>1270</v>
+      </c>
+      <c r="N23">
+        <v>5400</v>
+      </c>
+      <c r="O23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>895</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2300000</v>
+      </c>
+      <c r="G24">
+        <v>-21</v>
+      </c>
+      <c r="J24">
+        <v>22</v>
+      </c>
+      <c r="L24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>1330</v>
+      </c>
+      <c r="N24">
+        <v>5650</v>
+      </c>
+      <c r="O24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>935</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2400000</v>
+      </c>
+      <c r="G25">
+        <v>-22</v>
+      </c>
+      <c r="J25">
+        <v>23</v>
+      </c>
+      <c r="L25" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25">
+        <v>1390</v>
+      </c>
+      <c r="N25">
+        <v>5900</v>
+      </c>
+      <c r="O25" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
